--- a/SchedulingData/dynamic9/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>204.52</v>
+        <v>222.36</v>
       </c>
       <c r="D2" t="n">
-        <v>254.16</v>
+        <v>262.26</v>
       </c>
       <c r="E2" t="n">
-        <v>13.624</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>218.16</v>
+        <v>224.08</v>
       </c>
       <c r="D3" t="n">
-        <v>272.76</v>
+        <v>272.22</v>
       </c>
       <c r="E3" t="n">
-        <v>15.684</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>254.16</v>
+        <v>229.22</v>
       </c>
       <c r="D4" t="n">
-        <v>287.06</v>
+        <v>292.82</v>
       </c>
       <c r="E4" t="n">
-        <v>11.464</v>
+        <v>10.408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236.72</v>
+        <v>238.54</v>
       </c>
       <c r="D5" t="n">
-        <v>280.2</v>
+        <v>289.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>249.22</v>
+        <v>277.72</v>
       </c>
       <c r="D6" t="n">
-        <v>313.5</v>
+        <v>333.32</v>
       </c>
       <c r="E6" t="n">
-        <v>10.8</v>
+        <v>12.748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>287.06</v>
+        <v>241.54</v>
       </c>
       <c r="D7" t="n">
-        <v>331.96</v>
+        <v>299.94</v>
       </c>
       <c r="E7" t="n">
-        <v>8.603999999999999</v>
+        <v>15.436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>226.7</v>
+        <v>262.26</v>
       </c>
       <c r="D8" t="n">
-        <v>288.26</v>
+        <v>331.26</v>
       </c>
       <c r="E8" t="n">
-        <v>12.324</v>
+        <v>7.184</v>
       </c>
     </row>
     <row r="9">
@@ -603,32 +603,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>280.2</v>
+        <v>331.26</v>
       </c>
       <c r="D9" t="n">
-        <v>336.8</v>
+        <v>403.16</v>
       </c>
       <c r="E9" t="n">
-        <v>9.039999999999999</v>
+        <v>4.124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>272.76</v>
+        <v>299.94</v>
       </c>
       <c r="D10" t="n">
-        <v>306.46</v>
+        <v>366.86</v>
       </c>
       <c r="E10" t="n">
-        <v>13.444</v>
+        <v>12.844</v>
       </c>
     </row>
     <row r="11">
@@ -637,74 +637,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>313.5</v>
+        <v>272.22</v>
       </c>
       <c r="D11" t="n">
-        <v>386.06</v>
+        <v>330.94</v>
       </c>
       <c r="E11" t="n">
-        <v>7.664</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>336.8</v>
+        <v>289.6</v>
       </c>
       <c r="D12" t="n">
-        <v>381.7</v>
+        <v>333.08</v>
       </c>
       <c r="E12" t="n">
-        <v>6.18</v>
+        <v>9.932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>220.02</v>
+        <v>333.08</v>
       </c>
       <c r="D13" t="n">
-        <v>293.82</v>
+        <v>375.98</v>
       </c>
       <c r="E13" t="n">
-        <v>10.808</v>
+        <v>7.772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>293.82</v>
+        <v>333.32</v>
       </c>
       <c r="D14" t="n">
-        <v>361.66</v>
+        <v>403.64</v>
       </c>
       <c r="E14" t="n">
-        <v>8.103999999999999</v>
+        <v>9.836</v>
       </c>
     </row>
     <row r="15">
@@ -713,41 +713,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>288.26</v>
+        <v>403.64</v>
       </c>
       <c r="D15" t="n">
-        <v>340.38</v>
+        <v>456.1</v>
       </c>
       <c r="E15" t="n">
-        <v>9.731999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331.96</v>
+        <v>330.94</v>
       </c>
       <c r="D16" t="n">
-        <v>382.84</v>
+        <v>405.22</v>
       </c>
       <c r="E16" t="n">
-        <v>5.636</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,51 +755,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>381.7</v>
+        <v>292.82</v>
       </c>
       <c r="D17" t="n">
-        <v>425.46</v>
+        <v>346.38</v>
       </c>
       <c r="E17" t="n">
-        <v>3.424</v>
+        <v>7.652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>340.38</v>
+        <v>375.98</v>
       </c>
       <c r="D18" t="n">
-        <v>415.6</v>
+        <v>416.96</v>
       </c>
       <c r="E18" t="n">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pond44</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>361.66</v>
-      </c>
-      <c r="D19" t="n">
-        <v>410.12</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.368</v>
+        <v>4.804</v>
       </c>
     </row>
   </sheetData>
